--- a/trend_results/Rivers/TutaenuiStreamatusMartonSTP_c990bdc2fd.xlsx
+++ b/trend_results/Rivers/TutaenuiStreamatusMartonSTP_c990bdc2fd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W25"/>
+  <dimension ref="A1:W36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.51344014163462</v>
+        <v>0.48655985836538</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.972794652398851</v>
+        <v>0.027205347601149</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1661,7 +1661,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.37611188405658</v>
+        <v>0.62388811594342</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.973082483930908</v>
+        <v>0.026917516069092</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2721,6 +2721,1003 @@
         </is>
       </c>
       <c r="W25" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Tutaenui Stream at u/s Marton STP</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Dissolved Oxygen Concentration</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>15</v>
+      </c>
+      <c r="D26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>0.191832216394289</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.931818181818182</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>10.215</v>
+      </c>
+      <c r="K26" t="n">
+        <v>-0.0385944478908192</v>
+      </c>
+      <c r="L26" t="n">
+        <v>-0.104599707426892</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.0337423405166973</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.377821320517075</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Unlikely increasing</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>1803479</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5557800</v>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Rang_4d</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Tutaenui Stream at u/s Marton STP</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Dissolved Reactive Phosphorus</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>15</v>
+      </c>
+      <c r="D27" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>0.467945434397956</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.551470588235294</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>-0.0007754288313396</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.000777788272145</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>1803479</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5557800</v>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Rang_4d</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Tutaenui Stream at u/s Marton STP</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>E. coli</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>15</v>
+      </c>
+      <c r="D28" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0.97589169693333</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.867647058823529</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>490</v>
+      </c>
+      <c r="K28" t="n">
+        <v>-21.4691262541806</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-46.3182773026974</v>
+      </c>
+      <c r="M28" t="n">
+        <v>-2.95075614490014</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-4.38145433758788</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Extremely likely improving</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>1803479</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5557800</v>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Rang_4d</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Tutaenui Stream at u/s Marton STP</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Ammoniacal Nitrogen (NH4)</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>15</v>
+      </c>
+      <c r="D29" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0.96681103503365</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.46031746031746</v>
+      </c>
+      <c r="I29" t="n">
+        <v>5</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Extremely likely improving</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>1803479</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5557800</v>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Rang_4d</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Tutaenui Stream at u/s Marton STP</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>15</v>
+      </c>
+      <c r="D30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0.622280201967357</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.198412698412698</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.246031746031746</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>-0.0003155908896493</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.0001457501995211</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>1803479</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5557800</v>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Rang_4d</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Tutaenui Stream at u/s Marton STP</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>15</v>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0.394752886968911</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0873015873015873</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.865079365079365</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1.155</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.0015752021563342</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-0.0165853664522161</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.0251562569885029</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.136381139076557</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>1803479</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5557800</v>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Rang_4d</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Tutaenui Stream at u/s Marton STP</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>15</v>
+      </c>
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0.775872972439699</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.679389312977099</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.006688029297322</v>
+      </c>
+      <c r="L32" t="n">
+        <v>-0.0077956758090799</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.0243698226208904</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.0883491320650204</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Likely increasing</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>1803479</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5557800</v>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Rang_4d</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Tutaenui Stream at u/s Marton STP</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>15</v>
+      </c>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0.412602422220241</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.0220588235294118</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.948529411764706</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.0029535040431266</v>
+      </c>
+      <c r="L33" t="n">
+        <v>-0.0165123128420475</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.0244487505512641</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.266081445326728</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>1803479</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5557800</v>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Rang_4d</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Tutaenui Stream at u/s Marton STP</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>15</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0.523995794403759</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.860294117647059</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="K34" t="n">
+        <v>-0.0005583154998471</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-0.0244142946859942</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.0300970699829293</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.0328420882263025</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>1803479</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5557800</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Rang_4d</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Tutaenui Stream at u/s Marton STP</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>15</v>
+      </c>
+      <c r="D35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0.8648989074317081</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.669117647058823</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="K35" t="n">
+        <v>-0.0009999245326227</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-0.0024842171228863</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.0004363898604643</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-1.47047725385695</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>1803479</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5557800</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Rang_4d</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Tutaenui Stream at u/s Marton STP</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.974171239206697</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.889705882352941</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-0.0979597701149425</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-0.246185042795727</v>
+      </c>
+      <c r="M36" t="n">
+        <v>-0.0194339260685586</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-3.04222888555722</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Extremely likely improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1803479</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5557800</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Rang_4d</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/TutaenuiStreamatusMartonSTP_c990bdc2fd.xlsx
+++ b/trend_results/Rivers/TutaenuiStreamatusMartonSTP_c990bdc2fd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W36"/>
+  <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.48655985836538</v>
+        <v>0.093644248113444</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -585,19 +585,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>10.46</v>
+        <v>10.38</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.0148031762000574</v>
+        <v>-0.315364992150706</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.505804902422377</v>
+        <v>-0.669536762843176</v>
       </c>
       <c r="M2" t="n">
-        <v>0.552939132366625</v>
+        <v>0.0916500907969925</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.141521760994813</v>
+        <v>-3.03819838295478</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Very unlikely increasing</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.0887603653693614</v>
+        <v>0.0257378451920853</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.829268292682927</v>
+        <v>0.837209302325581</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.037</v>
+        <v>0.04</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0037935071981236</v>
+        <v>0.0048313492063492</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.0009679029023359</v>
+        <v>0.0009795151647299001</v>
       </c>
       <c r="M3" t="n">
-        <v>0.008641759983877799</v>
+        <v>0.0088554040519691</v>
       </c>
       <c r="N3" t="n">
-        <v>10.2527221570909</v>
+        <v>12.078373015873</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -755,31 +755,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.279519449661364</v>
+        <v>0.495824748842603</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.902439024390244</v>
+        <v>0.976744186046512</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="K4" t="n">
-        <v>18.8665253460232</v>
+        <v>0.979879275653924</v>
       </c>
       <c r="L4" t="n">
-        <v>-38.5568572112287</v>
+        <v>-48.1218177823622</v>
       </c>
       <c r="M4" t="n">
-        <v>103.223297422236</v>
+        <v>69.2936728948869</v>
       </c>
       <c r="N4" t="n">
-        <v>5.7171288927343</v>
+        <v>0.337889405397905</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -846,16 +846,16 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.422416318902145</v>
+        <v>0.8117942269849669</v>
       </c>
       <c r="G5" t="n">
-        <v>0.657142857142857</v>
+        <v>0.710526315789474</v>
       </c>
       <c r="H5" t="n">
-        <v>0.457142857142857</v>
+        <v>0.368421052631579</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
         <v>0.005</v>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -937,31 +937,31 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.121374367775091</v>
+        <v>0.998279745549517</v>
       </c>
       <c r="G6" t="n">
-        <v>0.219512195121951</v>
+        <v>0.27906976744186</v>
       </c>
       <c r="H6" t="n">
-        <v>0.414634146341463</v>
+        <v>0.372093023255814</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0008286262490456</v>
+        <v>-0.0012788865546218</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>-0.0020329313543599</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002066478076379</v>
+        <v>-0.0004893473082049</v>
       </c>
       <c r="N6" t="n">
-        <v>13.8104374840937</v>
+        <v>-25.577731092437</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1028,31 +1028,31 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.812577646556239</v>
+        <v>0.988105837394801</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0487804878048781</v>
+        <v>0.0232558139534884</v>
       </c>
       <c r="H7" t="n">
-        <v>0.951219512195122</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>1.16</v>
+        <v>0.786</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.088283969713273</v>
+        <v>-0.236549063336307</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.293275888371347</v>
+        <v>-0.401992460135116</v>
       </c>
       <c r="M7" t="n">
-        <v>0.111481622511037</v>
+        <v>-0.0394667518947636</v>
       </c>
       <c r="N7" t="n">
-        <v>-7.61068704424767</v>
+        <v>-30.0953006789195</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1119,31 +1119,31 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.027205347601149</v>
+        <v>0.059188326743832</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.825</v>
+        <v>0.80952380952381</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>7.625</v>
+        <v>7.55</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.0892671727227473</v>
+        <v>-0.0501717032967022</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.162364452071181</v>
+        <v>-0.124002971450935</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.0069435432873583</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>-1.17071701931472</v>
+        <v>-0.6645258714795</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Extremely unlikely increasing</t>
+          <t>Very unlikely increasing</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1206,31 +1206,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.712816727171492</v>
+        <v>0.982743004480838</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.975609756097561</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1.21</v>
+        <v>0.82</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0572427328167536</v>
+        <v>-0.233972702456779</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.286993124741558</v>
+        <v>-0.406115672593479</v>
       </c>
       <c r="M9" t="n">
-        <v>0.144946494791781</v>
+        <v>-0.0288540428264095</v>
       </c>
       <c r="N9" t="n">
-        <v>-4.73080436502096</v>
+        <v>-28.5332563971682</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -1293,35 +1293,35 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.663158422889115</v>
+        <v>0.96727089187188</v>
       </c>
       <c r="G10" t="n">
-        <v>0.170731707317073</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.365853658536585</v>
+        <v>0.953488372093023</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>1.29</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>-0.207456970740103</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.479437199131334</v>
+        <v>-0.405448274080698</v>
       </c>
       <c r="M10" t="n">
-        <v>0.212687051357429</v>
+        <v>-0.0149570747091178</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>-16.0819357162871</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1373,7 +1373,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -1388,31 +1388,31 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.685464302197795</v>
+        <v>0.049055627598692</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.951219512195122</v>
+        <v>0.86046511627907</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1.61</v>
+        <v>0.067</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.080099358300021</v>
+        <v>0.0055247899159663</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.307655635305437</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.18716457300681</v>
+        <v>0.0108277882377349</v>
       </c>
       <c r="N11" t="n">
-        <v>-4.97511542236155</v>
+        <v>8.245955098457291</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -1479,31 +1479,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.314434632401379</v>
+        <v>0.9924139240757019</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.804878048780488</v>
+        <v>0.953488372093023</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.064</v>
+        <v>1.75</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0019729564488094</v>
+        <v>-0.372704081632653</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.0036808357029363</v>
+        <v>-0.6953553121353599</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0077151724944174</v>
+        <v>-0.09810153441444371</v>
       </c>
       <c r="N12" t="n">
-        <v>3.08274445126472</v>
+        <v>-21.2973760932945</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1555,14 +1555,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.933860410284578</v>
+        <v>0.486076818757726</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.975609756097561</v>
+        <v>0.943181818181818</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>2.67</v>
+        <v>10.29</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.328888544605064</v>
+        <v>-0.0050171703296702</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.83395457563325</v>
+        <v>-0.0864835991322145</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0524295481744433</v>
+        <v>0.100389721210854</v>
       </c>
       <c r="N13" t="n">
-        <v>-12.3179230189162</v>
+        <v>-0.0487577291513141</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1646,7 +1646,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -1661,31 +1661,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.62388811594342</v>
+        <v>0.0319735858013684</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.942528735632184</v>
+        <v>0.677777777777778</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>10.37</v>
+        <v>0.039</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0279885057471262</v>
+        <v>0.0009986329460013</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.0666779912563418</v>
+        <v>5.85117211278457e-05</v>
       </c>
       <c r="M14" t="n">
-        <v>0.128113547586003</v>
+        <v>0.0016838679930251</v>
       </c>
       <c r="N14" t="n">
-        <v>0.269898801804496</v>
+        <v>2.5605972974394</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1737,14 +1737,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>10</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1752,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.0395283160986579</v>
+        <v>0.93829591990007</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.6741573033707861</v>
+        <v>0.866666666666667</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.037</v>
+        <v>372</v>
       </c>
       <c r="K15" t="n">
-        <v>0.001003434065934</v>
+        <v>-20.5915435139573</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>-54.1904385520052</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0018432085740644</v>
+        <v>1.11795486994065</v>
       </c>
       <c r="N15" t="n">
-        <v>2.71198396198396</v>
+        <v>-5.53536115966594</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1839,35 +1839,35 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.7874025996212199</v>
+        <v>0.557231889267189</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.731707317073171</v>
       </c>
       <c r="H16" t="n">
-        <v>0.865168539325843</v>
+        <v>0.317073170731707</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J16" t="n">
-        <v>410</v>
+        <v>0.005</v>
       </c>
       <c r="K16" t="n">
-        <v>-11.4265368852459</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>-38.3018203866475</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>12.386406613557</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>-2.78696021591363</v>
+        <v>0</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1930,35 +1930,35 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.122395039734578</v>
+        <v>0.988468416442316</v>
       </c>
       <c r="G17" t="n">
-        <v>0.728395061728395</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="H17" t="n">
-        <v>0.320987654320988</v>
+        <v>0.266666666666667</v>
       </c>
       <c r="I17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>-0.0003923200859291</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>-0.0006661094224924</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>-6.53866809881847</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -2010,46 +2010,46 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>10</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.599706291424433</v>
+        <v>0.969986399413313</v>
       </c>
       <c r="G18" t="n">
-        <v>0.134831460674157</v>
+        <v>0.0555555555555556</v>
       </c>
       <c r="H18" t="n">
-        <v>0.269662921348315</v>
+        <v>0.9</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>0.007</v>
+        <v>1.128</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>-0.0526546532846715</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.0004133618578772</v>
+        <v>-0.0975298939563166</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0003016102394715</v>
+        <v>-0.009327309514513601</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>-4.6679657167262</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2101,7 +2101,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2112,35 +2112,35 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.5</v>
+        <v>0.035094999961446</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0786516853932584</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.853932584269663</v>
+        <v>0.7471264367816089</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1.16</v>
+        <v>7.62</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>-0.0225231243576567</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.0365172593962122</v>
+        <v>-0.0390319348710624</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0490961769787765</v>
+        <v>-0.0043138828072462</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>-0.295579059811768</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2178,11 +2178,7 @@
           <t>Rang_4d</t>
         </is>
       </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2192,7 +2188,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2207,31 +2203,31 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.026917516069092</v>
+        <v>0.897087045535116</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.0222222222222222</v>
       </c>
       <c r="H20" t="n">
-        <v>0.744186046511628</v>
+        <v>0.977777777777778</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>7.63</v>
+        <v>1.14415</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.0199408553230211</v>
+        <v>-0.0327488563586459</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.0439831696722296</v>
+        <v>-0.0808729786130812</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.0040999225791378</v>
+        <v>0.0055859354972811</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.261348038309582</v>
+        <v>-2.86228696924756</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2240,7 +2236,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Extremely unlikely increasing</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2269,7 +2265,11 @@
           <t>Rang_4d</t>
         </is>
       </c>
-      <c r="W20" t="inlineStr"/>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2279,7 +2279,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -2294,31 +2294,31 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.291165519493124</v>
+        <v>0.982942250457438</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0224719101123595</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.955056179775281</v>
+        <v>0.944444444444444</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1.21</v>
+        <v>1.695</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0169930213464696</v>
+        <v>-0.0586696855775803</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.0266599591967487</v>
+        <v>-0.117378108330346</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0694623260166464</v>
+        <v>-0.0124449995710719</v>
       </c>
       <c r="N21" t="n">
-        <v>1.4043819294603</v>
+        <v>-3.46133838215813</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2370,7 +2370,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -2381,35 +2381,35 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.729717206673351</v>
+        <v>0.245026305035845</v>
       </c>
       <c r="G22" t="n">
-        <v>0.123595505617978</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.280898876404494</v>
+        <v>0.744444444444444</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>2</v>
+        <v>0.0655</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>0.000748974709501</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.162045252883762</v>
+        <v>-0.001208555489171</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>0.0026679571844295</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1.14347283893286</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2449,7 +2449,7 @@
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2461,14 +2461,14 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>10</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -2476,31 +2476,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.472627427769712</v>
+        <v>0.99913573146424</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.932584269662921</v>
+        <v>0.966666666666667</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1.71</v>
+        <v>2.685</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0016670470104974</v>
+        <v>-0.24826900921659</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.0444396157623761</v>
+        <v>-0.461088100364354</v>
       </c>
       <c r="M23" t="n">
-        <v>0.080830240919866</v>
+        <v>-0.106008313963082</v>
       </c>
       <c r="N23" t="n">
-        <v>0.09748812926885909</v>
+        <v>-9.24651803413742</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2540,7 +2540,7 @@
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2552,14 +2552,14 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -2567,31 +2567,31 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.372167231263301</v>
+        <v>0.277100086017895</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.707865168539326</v>
+        <v>0.930555555555556</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.064</v>
+        <v>10.195</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0003707286183024</v>
+        <v>-0.0142537582934407</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.0015578371801814</v>
+        <v>-0.07412044242156759</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0023990147783251</v>
+        <v>0.0372199114030182</v>
       </c>
       <c r="N24" t="n">
-        <v>0.57926346609757</v>
+        <v>-0.139811263300055</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2643,14 +2643,14 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.8964631074782839</v>
+        <v>0.219918368363561</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.955056179775281</v>
+        <v>0.52027027027027</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>2.87</v>
+        <v>0.04</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.09823006727321471</v>
+        <v>0.0001999178981937</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.254328186648739</v>
+        <v>-0.0003789983829193</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0376857821200992</v>
+        <v>0.0007787846481876</v>
       </c>
       <c r="N25" t="n">
-        <v>-3.42265042763814</v>
+        <v>0.499794745484401</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2734,14 +2734,14 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>15</v>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -2749,31 +2749,31 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.191832216394289</v>
+        <v>0.994189362343704</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.931818181818182</v>
+        <v>0.864864864864865</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>10.215</v>
+        <v>482</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.0385944478908192</v>
+        <v>-22.6704685292921</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.104599707426892</v>
+        <v>-43.4821428571429</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0337423405166973</v>
+        <v>-7.12518407735106</v>
       </c>
       <c r="N26" t="n">
-        <v>-0.377821320517075</v>
+        <v>-4.703416707322</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2825,43 +2825,43 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C27" t="n">
         <v>15</v>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.467945434397956</v>
+        <v>0.99590264606426</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>0.5942028985507249</v>
       </c>
       <c r="H27" t="n">
-        <v>0.551470588235294</v>
+        <v>0.434782608695652</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J27" t="n">
-        <v>0.04</v>
+        <v>0.005</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.0007754288313396</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0.000777788272145</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -2927,35 +2927,35 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.97589169693333</v>
+        <v>0.973380748950434</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.231884057971014</v>
       </c>
       <c r="H28" t="n">
-        <v>0.867647058823529</v>
+        <v>0.22463768115942</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28" t="n">
-        <v>490</v>
+        <v>0.006</v>
       </c>
       <c r="K28" t="n">
-        <v>-21.4691262541806</v>
+        <v>-0.0002258812615955</v>
       </c>
       <c r="L28" t="n">
-        <v>-46.3182773026974</v>
+        <v>-0.0004807097320738</v>
       </c>
       <c r="M28" t="n">
-        <v>-2.95075614490014</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>-4.38145433758788</v>
+        <v>-3.76468769325912</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3007,46 +3007,46 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C29" t="n">
         <v>15</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.96681103503365</v>
+        <v>0.681911216537614</v>
       </c>
       <c r="G29" t="n">
-        <v>0.571428571428571</v>
+        <v>0.0797101449275362</v>
       </c>
       <c r="H29" t="n">
-        <v>0.46031746031746</v>
+        <v>0.876811594202899</v>
       </c>
       <c r="I29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>0.005</v>
+        <v>1.07035</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>-0.0031775412087912</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>-0.0246806593145774</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>0.0067608118286148</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>-0.296869361310899</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3098,46 +3098,46 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.622280201967357</v>
+        <v>0.810899425437082</v>
       </c>
       <c r="G30" t="n">
-        <v>0.198412698412698</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.246031746031746</v>
+        <v>0.65034965034965</v>
       </c>
       <c r="I30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.007</v>
+        <v>7.56</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>0.0068274201032068</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.0003155908896493</v>
+        <v>-0.00505321376781</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0001457501995211</v>
+        <v>0.0202371173208622</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>0.0903097897249578</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3175,11 +3175,7 @@
           <t>Rang_4d</t>
         </is>
       </c>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3189,7 +3185,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3204,31 +3200,31 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.394752886968911</v>
+        <v>0.710751993599312</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0873015873015873</v>
+        <v>0.0202702702702703</v>
       </c>
       <c r="H31" t="n">
-        <v>0.865079365079365</v>
+        <v>0.959459459459459</v>
       </c>
       <c r="I31" t="n">
         <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>1.155</v>
+        <v>1.0265</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0015752021563342</v>
+        <v>-0.0021978938730853</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.0165853664522161</v>
+        <v>-0.0230789835164835</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0251562569885029</v>
+        <v>0.007080917033798</v>
       </c>
       <c r="N31" t="n">
-        <v>0.136381139076557</v>
+        <v>-0.214115331036078</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3237,7 +3233,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3268,7 +3264,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3280,7 +3276,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3295,31 +3291,31 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.775872972439699</v>
+        <v>0.833308868505074</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.679389312977099</v>
+        <v>0.864864864864865</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>7.57</v>
+        <v>1.5825</v>
       </c>
       <c r="K32" t="n">
-        <v>0.006688029297322</v>
+        <v>-0.009013572799561199</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.0077956758090799</v>
+        <v>-0.0345875384274324</v>
       </c>
       <c r="M32" t="n">
-        <v>0.0243698226208904</v>
+        <v>0.008389286167194599</v>
       </c>
       <c r="N32" t="n">
-        <v>0.0883491320650204</v>
+        <v>-0.569578060003872</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3328,7 +3324,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3357,7 +3353,11 @@
           <t>Rang_4d</t>
         </is>
       </c>
-      <c r="W32" t="inlineStr"/>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3367,7 +3367,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3382,31 +3382,31 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.412602422220241</v>
+        <v>0.672941710680018</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0220588235294118</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.948529411764706</v>
+        <v>0.655405405405405</v>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>1.11</v>
+        <v>0.068</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0029535040431266</v>
+        <v>-0.0002496582365003</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.0165123128420475</v>
+        <v>-0.001340763551444</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0244487505512641</v>
+        <v>0.0007188832811356</v>
       </c>
       <c r="N33" t="n">
-        <v>0.266081445326728</v>
+        <v>-0.367144465441679</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3415,7 +3415,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3458,7 +3458,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3473,31 +3473,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.523995794403759</v>
+        <v>0.9972495045840269</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.860294117647059</v>
+        <v>0.885135135135135</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>1.7</v>
+        <v>2.685</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.0005583154998471</v>
+        <v>-0.105786692759296</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.0244142946859942</v>
+        <v>-0.245839352723737</v>
       </c>
       <c r="M34" t="n">
-        <v>0.0300970699829293</v>
+        <v>-0.056244724136708</v>
       </c>
       <c r="N34" t="n">
-        <v>-0.0328420882263025</v>
+        <v>-3.9399140692475</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3536,188 +3536,6 @@
         </is>
       </c>
       <c r="W34" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Tutaenui Stream at u/s Marton STP</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Total Phosphorus</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>15</v>
-      </c>
-      <c r="D35" t="b">
-        <v>0</v>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>0.8648989074317081</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0.669117647058823</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.068</v>
-      </c>
-      <c r="K35" t="n">
-        <v>-0.0009999245326227</v>
-      </c>
-      <c r="L35" t="n">
-        <v>-0.0024842171228863</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.0004363898604643</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-1.47047725385695</v>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>Likely improving</t>
-        </is>
-      </c>
-      <c r="Q35" t="n">
-        <v>1803479</v>
-      </c>
-      <c r="R35" t="n">
-        <v>5557800</v>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>Rangitikei District</t>
-        </is>
-      </c>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>Rangitīkei-Turakina</t>
-        </is>
-      </c>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>Coastal Rangitikei</t>
-        </is>
-      </c>
-      <c r="V35" t="inlineStr">
-        <is>
-          <t>Rang_4d</t>
-        </is>
-      </c>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Tutaenui Stream at u/s Marton STP</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Turbidity</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>15</v>
-      </c>
-      <c r="D36" t="b">
-        <v>1</v>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>0.974171239206697</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0.889705882352941</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="K36" t="n">
-        <v>-0.0979597701149425</v>
-      </c>
-      <c r="L36" t="n">
-        <v>-0.246185042795727</v>
-      </c>
-      <c r="M36" t="n">
-        <v>-0.0194339260685586</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-3.04222888555722</v>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>Extremely likely improving</t>
-        </is>
-      </c>
-      <c r="Q36" t="n">
-        <v>1803479</v>
-      </c>
-      <c r="R36" t="n">
-        <v>5557800</v>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>Rangitikei District</t>
-        </is>
-      </c>
-      <c r="T36" t="inlineStr">
-        <is>
-          <t>Rangitīkei-Turakina</t>
-        </is>
-      </c>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>Coastal Rangitikei</t>
-        </is>
-      </c>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>Rang_4d</t>
-        </is>
-      </c>
-      <c r="W36" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/TutaenuiStreamatusMartonSTP_c990bdc2fd.xlsx
+++ b/trend_results/Rivers/TutaenuiStreamatusMartonSTP_c990bdc2fd.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="60">
   <si>
     <t>site name</t>
   </si>
@@ -130,43 +130,46 @@
     <t>WARNING: Sen slope influenced by censored values</t>
   </si>
   <si>
+    <t>WARNING: Sen slope based on tied non-censored values</t>
+  </si>
+  <si>
     <t>RepSite</t>
   </si>
   <si>
+    <t>Extremely unlikely increasing</t>
+  </si>
+  <si>
+    <t>Very unlikely improving</t>
+  </si>
+  <si>
+    <t>Very likely improving</t>
+  </si>
+  <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
+    <t>Unlikely increasing</t>
+  </si>
+  <si>
+    <t>Extremely unlikely improving</t>
+  </si>
+  <si>
+    <t>Extremely likely improving</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely improving</t>
+  </si>
+  <si>
     <t>Very unlikely increasing</t>
   </si>
   <si>
-    <t>Extremely unlikely improving</t>
-  </si>
-  <si>
     <t>As likely as not improving</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
-    <t>Virtually certain improving</t>
-  </si>
-  <si>
-    <t>Extremely likely improving</t>
-  </si>
-  <si>
-    <t>As likely as not increasing</t>
-  </si>
-  <si>
-    <t>Very likely improving</t>
-  </si>
-  <si>
-    <t>Extremely unlikely increasing</t>
-  </si>
-  <si>
-    <t>Unlikely improving</t>
-  </si>
-  <si>
-    <t>Unlikely increasing</t>
-  </si>
-  <si>
-    <t>Likely increasing</t>
   </si>
   <si>
     <t>Rangitikei District</t>
@@ -642,37 +645,37 @@
         <v>35</v>
       </c>
       <c r="F2">
-        <v>0.093644248113444</v>
+        <v>0.012218486583369</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0.976744186046512</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.38</v>
+        <v>10.04</v>
       </c>
       <c r="K2">
-        <v>-0.315364992150706</v>
+        <v>-0.549491150442478</v>
       </c>
       <c r="L2">
-        <v>-0.669536762843176</v>
+        <v>-0.9869563049097</v>
       </c>
       <c r="M2">
-        <v>0.0916500907969925</v>
+        <v>-0.163214820748041</v>
       </c>
       <c r="N2">
-        <v>-3.03819838295478</v>
+        <v>-5.47301942671791</v>
       </c>
       <c r="O2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q2">
         <v>1803479</v>
@@ -681,19 +684,19 @@
         <v>5557800</v>
       </c>
       <c r="S2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -713,37 +716,37 @@
         <v>35</v>
       </c>
       <c r="F3">
-        <v>0.0257378451920853</v>
+        <v>0.0631999667241904</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.837209302325581</v>
+        <v>0.86046511627907</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04</v>
+        <v>0.049</v>
       </c>
       <c r="K3">
-        <v>0.0048313492063492</v>
+        <v>0.0043083224115334</v>
       </c>
       <c r="L3">
-        <v>0.0009795151647299001</v>
+        <v>-0.000586728640119</v>
       </c>
       <c r="M3">
-        <v>0.0088554040519691</v>
+        <v>0.0085571635430907</v>
       </c>
       <c r="N3">
-        <v>12.078373015873</v>
+        <v>8.79249471741514</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q3">
         <v>1803479</v>
@@ -752,19 +755,19 @@
         <v>5557800</v>
       </c>
       <c r="S3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -784,7 +787,7 @@
         <v>35</v>
       </c>
       <c r="F4">
-        <v>0.495824748842603</v>
+        <v>0.9271339590001479</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -796,25 +799,25 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="K4">
-        <v>0.979879275653924</v>
+        <v>-40.1373626373626</v>
       </c>
       <c r="L4">
-        <v>-48.1218177823622</v>
+        <v>-90.78746743780169</v>
       </c>
       <c r="M4">
-        <v>69.2936728948869</v>
+        <v>5.72227672479546</v>
       </c>
       <c r="N4">
-        <v>0.337889405397905</v>
+        <v>-14.3347723704867</v>
       </c>
       <c r="O4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q4">
         <v>1803479</v>
@@ -823,19 +826,19 @@
         <v>5557800</v>
       </c>
       <c r="S4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -855,16 +858,16 @@
         <v>36</v>
       </c>
       <c r="F5">
-        <v>0.8117942269849669</v>
+        <v>0.7509592018660221</v>
       </c>
       <c r="G5">
-        <v>0.710526315789474</v>
+        <v>0.657894736842105</v>
       </c>
       <c r="H5">
         <v>0.368421052631579</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J5">
         <v>0.005</v>
@@ -882,10 +885,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q5">
         <v>1803479</v>
@@ -894,19 +897,19 @@
         <v>5557800</v>
       </c>
       <c r="S5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -923,13 +926,13 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F6">
-        <v>0.998279745549517</v>
+        <v>0.998810857556746</v>
       </c>
       <c r="G6">
-        <v>0.27906976744186</v>
+        <v>0.348837209302326</v>
       </c>
       <c r="H6">
         <v>0.372093023255814</v>
@@ -941,22 +944,22 @@
         <v>0.005</v>
       </c>
       <c r="K6">
-        <v>-0.0012788865546218</v>
+        <v>-0.0013265738498789</v>
       </c>
       <c r="L6">
-        <v>-0.0020329313543599</v>
+        <v>-0.0023717532467532</v>
       </c>
       <c r="M6">
-        <v>-0.0004893473082049</v>
+        <v>-0.0003392824669185</v>
       </c>
       <c r="N6">
-        <v>-25.577731092437</v>
+        <v>-26.5314769975787</v>
       </c>
       <c r="O6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q6">
         <v>1803479</v>
@@ -965,19 +968,19 @@
         <v>5557800</v>
       </c>
       <c r="S6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -997,34 +1000,34 @@
         <v>35</v>
       </c>
       <c r="F7">
-        <v>0.988105837394801</v>
+        <v>0.996848852328143</v>
       </c>
       <c r="G7">
-        <v>0.0232558139534884</v>
+        <v>0.0465116279069767</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0.976744186046512</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.786</v>
+        <v>0.678</v>
       </c>
       <c r="K7">
-        <v>-0.236549063336307</v>
+        <v>-0.286982142857143</v>
       </c>
       <c r="L7">
-        <v>-0.401992460135116</v>
+        <v>-0.481905296763584</v>
       </c>
       <c r="M7">
-        <v>-0.0394667518947636</v>
+        <v>-0.103921629032651</v>
       </c>
       <c r="N7">
-        <v>-30.0953006789195</v>
+        <v>-42.3277496839444</v>
       </c>
       <c r="O7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P7" t="s">
         <v>44</v>
@@ -1036,19 +1039,19 @@
         <v>5557800</v>
       </c>
       <c r="S7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1068,37 +1071,37 @@
         <v>35</v>
       </c>
       <c r="F8">
-        <v>0.059188326743832</v>
+        <v>0.040737048243312</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.80952380952381</v>
+        <v>0.804878048780488</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.55</v>
+        <v>7.53</v>
       </c>
       <c r="K8">
-        <v>-0.0501717032967022</v>
+        <v>-0.0687012941128967</v>
       </c>
       <c r="L8">
-        <v>-0.124002971450935</v>
+        <v>-0.17057053487831</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>-0.0023671405190373</v>
       </c>
       <c r="N8">
-        <v>-0.6645258714795</v>
+        <v>-0.912367783703807</v>
       </c>
       <c r="O8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q8">
         <v>1803479</v>
@@ -1107,16 +1110,16 @@
         <v>5557800</v>
       </c>
       <c r="S8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1136,7 +1139,7 @@
         <v>35</v>
       </c>
       <c r="F9">
-        <v>0.982743004480838</v>
+        <v>0.996745853797868</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1148,22 +1151,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.82</v>
+        <v>0.704</v>
       </c>
       <c r="K9">
-        <v>-0.233972702456779</v>
+        <v>-0.295678571428571</v>
       </c>
       <c r="L9">
-        <v>-0.406115672593479</v>
+        <v>-0.540746634940062</v>
       </c>
       <c r="M9">
-        <v>-0.0288540428264095</v>
+        <v>-0.135291297921309</v>
       </c>
       <c r="N9">
-        <v>-28.5332563971682</v>
+        <v>-41.9997970779221</v>
       </c>
       <c r="O9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P9" t="s">
         <v>44</v>
@@ -1175,19 +1178,19 @@
         <v>5557800</v>
       </c>
       <c r="S9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1207,34 +1210,34 @@
         <v>35</v>
       </c>
       <c r="F10">
-        <v>0.96727089187188</v>
+        <v>0.9984727569285901</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.953488372093023</v>
+        <v>0.930232558139535</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.29</v>
+        <v>1.03</v>
       </c>
       <c r="K10">
-        <v>-0.207456970740103</v>
+        <v>-0.294712301587302</v>
       </c>
       <c r="L10">
-        <v>-0.405448274080698</v>
+        <v>-0.609339087013281</v>
       </c>
       <c r="M10">
-        <v>-0.0149570747091178</v>
+        <v>-0.139734759207858</v>
       </c>
       <c r="N10">
-        <v>-16.0819357162871</v>
+        <v>-28.6128448143011</v>
       </c>
       <c r="O10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P10" t="s">
         <v>44</v>
@@ -1246,19 +1249,19 @@
         <v>5557800</v>
       </c>
       <c r="S10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1278,7 +1281,7 @@
         <v>35</v>
       </c>
       <c r="F11">
-        <v>0.049055627598692</v>
+        <v>0.326282347692674</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1290,25 +1293,25 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.067</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="K11">
-        <v>0.0055247899159663</v>
+        <v>0.0018244255744255</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>-0.0051458866538612</v>
       </c>
       <c r="M11">
-        <v>0.0108277882377349</v>
+        <v>0.008134006056958701</v>
       </c>
       <c r="N11">
-        <v>8.245955098457291</v>
+        <v>2.64409503539938</v>
       </c>
       <c r="O11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Q11">
         <v>1803479</v>
@@ -1317,19 +1320,19 @@
         <v>5557800</v>
       </c>
       <c r="S11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1349,37 +1352,37 @@
         <v>35</v>
       </c>
       <c r="F12">
-        <v>0.9924139240757019</v>
+        <v>0.999529836174308</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.953488372093023</v>
+        <v>0.906976744186046</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.75</v>
+        <v>1.64</v>
       </c>
       <c r="K12">
-        <v>-0.372704081632653</v>
+        <v>-0.454146825396825</v>
       </c>
       <c r="L12">
-        <v>-0.6953553121353599</v>
+        <v>-0.776203416445671</v>
       </c>
       <c r="M12">
-        <v>-0.09810153441444371</v>
+        <v>-0.225500171341947</v>
       </c>
       <c r="N12">
-        <v>-21.2973760932945</v>
+        <v>-27.6918795973674</v>
       </c>
       <c r="O12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q12">
         <v>1803479</v>
@@ -1388,19 +1391,19 @@
         <v>5557800</v>
       </c>
       <c r="S12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1414,19 +1417,19 @@
         <v>10</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="s">
         <v>35</v>
       </c>
       <c r="F13">
-        <v>0.486076818757726</v>
+        <v>0.159052476930119</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.943181818181818</v>
+        <v>0.954545454545455</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1435,22 +1438,22 @@
         <v>10.29</v>
       </c>
       <c r="K13">
-        <v>-0.0050171703296702</v>
+        <v>-0.0820563456834861</v>
       </c>
       <c r="L13">
-        <v>-0.0864835991322145</v>
+        <v>-0.215663873577785</v>
       </c>
       <c r="M13">
-        <v>0.100389721210854</v>
+        <v>0.0546122538516355</v>
       </c>
       <c r="N13">
-        <v>-0.0487577291513141</v>
+        <v>-0.7974377617442771</v>
       </c>
       <c r="O13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q13">
         <v>1803479</v>
@@ -1459,19 +1462,19 @@
         <v>5557800</v>
       </c>
       <c r="S13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1485,43 +1488,43 @@
         <v>10</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="s">
         <v>35</v>
       </c>
       <c r="F14">
-        <v>0.0319735858013684</v>
+        <v>0.0177777936486109</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.677777777777778</v>
+        <v>0.707865168539326</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.039</v>
+        <v>0.04</v>
       </c>
       <c r="K14">
-        <v>0.0009986329460013</v>
+        <v>0.0017880507343124</v>
       </c>
       <c r="L14">
-        <v>5.85117211278457E-05</v>
+        <v>0.0003879246205759</v>
       </c>
       <c r="M14">
-        <v>0.0016838679930251</v>
+        <v>0.0031585842475519</v>
       </c>
       <c r="N14">
-        <v>2.5605972974394</v>
+        <v>4.47012683578104</v>
       </c>
       <c r="O14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P14" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="Q14">
         <v>1803479</v>
@@ -1530,19 +1533,19 @@
         <v>5557800</v>
       </c>
       <c r="S14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1562,37 +1565,37 @@
         <v>35</v>
       </c>
       <c r="F15">
-        <v>0.93829591990007</v>
+        <v>0.963257980211515</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.866666666666667</v>
+        <v>0.865168539325843</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="K15">
-        <v>-20.5915435139573</v>
+        <v>-21.3429514970871</v>
       </c>
       <c r="L15">
-        <v>-54.1904385520052</v>
+        <v>-51.6374168692546</v>
       </c>
       <c r="M15">
-        <v>1.11795486994065</v>
+        <v>-1.58339036317641</v>
       </c>
       <c r="N15">
-        <v>-5.53536115966594</v>
+        <v>-6.09798614202489</v>
       </c>
       <c r="O15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q15">
         <v>1803479</v>
@@ -1601,19 +1604,19 @@
         <v>5557800</v>
       </c>
       <c r="S15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1630,16 +1633,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F16">
-        <v>0.557231889267189</v>
+        <v>0.299201409645616</v>
       </c>
       <c r="G16">
-        <v>0.731707317073171</v>
+        <v>0.716049382716049</v>
       </c>
       <c r="H16">
-        <v>0.317073170731707</v>
+        <v>0.345679012345679</v>
       </c>
       <c r="I16">
         <v>5</v>
@@ -1660,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="Q16">
         <v>1803479</v>
@@ -1672,19 +1675,19 @@
         <v>5557800</v>
       </c>
       <c r="S16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1701,16 +1704,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F17">
-        <v>0.988468416442316</v>
+        <v>0.996822324780816</v>
       </c>
       <c r="G17">
-        <v>0.211111111111111</v>
+        <v>0.258426966292135</v>
       </c>
       <c r="H17">
-        <v>0.266666666666667</v>
+        <v>0.247191011235955</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -1719,19 +1722,19 @@
         <v>0.006</v>
       </c>
       <c r="K17">
-        <v>-0.0003923200859291</v>
+        <v>-0.0004617572692793</v>
       </c>
       <c r="L17">
-        <v>-0.0006661094224924</v>
+        <v>-0.0008115339295764</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>-6.53866809881847</v>
+        <v>-7.69595448798989</v>
       </c>
       <c r="O17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P17" t="s">
         <v>44</v>
@@ -1743,19 +1746,19 @@
         <v>5557800</v>
       </c>
       <c r="S17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1769,40 +1772,40 @@
         <v>10</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="s">
         <v>35</v>
       </c>
       <c r="F18">
-        <v>0.969986399413313</v>
+        <v>0.996791787091321</v>
       </c>
       <c r="G18">
-        <v>0.0555555555555556</v>
+        <v>0.0561797752808989</v>
       </c>
       <c r="H18">
-        <v>0.9</v>
+        <v>0.887640449438202</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>1.128</v>
+        <v>1.0907</v>
       </c>
       <c r="K18">
-        <v>-0.0526546532846715</v>
+        <v>-0.114805083556494</v>
       </c>
       <c r="L18">
-        <v>-0.0975298939563166</v>
+        <v>-0.186982810404675</v>
       </c>
       <c r="M18">
-        <v>-0.009327309514513601</v>
+        <v>-0.0382934956759855</v>
       </c>
       <c r="N18">
-        <v>-4.6679657167262</v>
+        <v>-10.525816774227</v>
       </c>
       <c r="O18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P18" t="s">
         <v>44</v>
@@ -1814,19 +1817,19 @@
         <v>5557800</v>
       </c>
       <c r="S18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1840,43 +1843,43 @@
         <v>10</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="s">
         <v>35</v>
       </c>
       <c r="F19">
-        <v>0.035094999961446</v>
+        <v>0.0473200673536009</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.7471264367816089</v>
+        <v>0.744186046511628</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.62</v>
+        <v>7.57</v>
       </c>
       <c r="K19">
-        <v>-0.0225231243576567</v>
+        <v>-0.0221363636363637</v>
       </c>
       <c r="L19">
-        <v>-0.0390319348710624</v>
+        <v>-0.0480842779383996</v>
       </c>
       <c r="M19">
-        <v>-0.0043138828072462</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>-0.295579059811768</v>
+        <v>-0.292422240903087</v>
       </c>
       <c r="O19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P19" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="Q19">
         <v>1803479</v>
@@ -1885,16 +1888,16 @@
         <v>5557800</v>
       </c>
       <c r="S19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1908,43 +1911,43 @@
         <v>10</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="s">
         <v>35</v>
       </c>
       <c r="F20">
-        <v>0.897087045535116</v>
+        <v>0.994009616455269</v>
       </c>
       <c r="G20">
-        <v>0.0222222222222222</v>
+        <v>0.0224719101123595</v>
       </c>
       <c r="H20">
-        <v>0.977777777777778</v>
+        <v>0.97752808988764</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>1.14415</v>
+        <v>1.0971</v>
       </c>
       <c r="K20">
-        <v>-0.0327488563586459</v>
+        <v>-0.114872958976977</v>
       </c>
       <c r="L20">
-        <v>-0.0808729786130812</v>
+        <v>-0.187860567132849</v>
       </c>
       <c r="M20">
-        <v>0.0055859354972811</v>
+        <v>-0.0327365616552494</v>
       </c>
       <c r="N20">
-        <v>-2.86228696924756</v>
+        <v>-10.4706005812576</v>
       </c>
       <c r="O20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q20">
         <v>1803479</v>
@@ -1953,19 +1956,19 @@
         <v>5557800</v>
       </c>
       <c r="S20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1979,40 +1982,40 @@
         <v>10</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="s">
         <v>35</v>
       </c>
       <c r="F21">
-        <v>0.982942250457438</v>
+        <v>0.999370339302143</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.944444444444444</v>
+        <v>0.910112359550562</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1.695</v>
+        <v>1.61</v>
       </c>
       <c r="K21">
-        <v>-0.0586696855775803</v>
+        <v>-0.155312268275844</v>
       </c>
       <c r="L21">
-        <v>-0.117378108330346</v>
+        <v>-0.233812479608277</v>
       </c>
       <c r="M21">
-        <v>-0.0124449995710719</v>
+        <v>-0.0754480266348411</v>
       </c>
       <c r="N21">
-        <v>-3.46133838215813</v>
+        <v>-9.646724737630089</v>
       </c>
       <c r="O21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P21" t="s">
         <v>44</v>
@@ -2024,19 +2027,19 @@
         <v>5557800</v>
       </c>
       <c r="S21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2056,37 +2059,37 @@
         <v>35</v>
       </c>
       <c r="F22">
-        <v>0.245026305035845</v>
+        <v>0.267520864252408</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.744444444444444</v>
+        <v>0.707865168539326</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.0655</v>
+        <v>0.067</v>
       </c>
       <c r="K22">
-        <v>0.000748974709501</v>
+        <v>0.0007124101318066</v>
       </c>
       <c r="L22">
-        <v>-0.001208555489171</v>
+        <v>-0.001425056882897</v>
       </c>
       <c r="M22">
-        <v>0.0026679571844295</v>
+        <v>0.0026089285714285</v>
       </c>
       <c r="N22">
-        <v>1.14347283893286</v>
+        <v>1.06329870418908</v>
       </c>
       <c r="O22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P22" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q22">
         <v>1803479</v>
@@ -2095,19 +2098,19 @@
         <v>5557800</v>
       </c>
       <c r="S22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2127,37 +2130,37 @@
         <v>35</v>
       </c>
       <c r="F23">
-        <v>0.99913573146424</v>
+        <v>0.999706590734969</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.966666666666667</v>
+        <v>0.943820224719101</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>2.685</v>
+        <v>2.33</v>
       </c>
       <c r="K23">
-        <v>-0.24826900921659</v>
+        <v>-0.228454752329485</v>
       </c>
       <c r="L23">
-        <v>-0.461088100364354</v>
+        <v>-0.429654170080366</v>
       </c>
       <c r="M23">
-        <v>-0.106008313963082</v>
+        <v>-0.105761591452329</v>
       </c>
       <c r="N23">
-        <v>-9.24651803413742</v>
+        <v>-9.804924992681769</v>
       </c>
       <c r="O23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q23">
         <v>1803479</v>
@@ -2166,19 +2169,19 @@
         <v>5557800</v>
       </c>
       <c r="S23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2198,37 +2201,37 @@
         <v>35</v>
       </c>
       <c r="F24">
-        <v>0.277100086017895</v>
+        <v>0.232112401415685</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.930555555555556</v>
+        <v>0.9290780141843969</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.195</v>
+        <v>10.16</v>
       </c>
       <c r="K24">
-        <v>-0.0142537582934407</v>
+        <v>-0.0172017268445841</v>
       </c>
       <c r="L24">
-        <v>-0.07412044242156759</v>
+        <v>-0.0673689817813365</v>
       </c>
       <c r="M24">
-        <v>0.0372199114030182</v>
+        <v>0.0311619815476353</v>
       </c>
       <c r="N24">
-        <v>-0.139811263300055</v>
+        <v>-0.169308335084489</v>
       </c>
       <c r="O24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P24" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Q24">
         <v>1803479</v>
@@ -2237,19 +2240,19 @@
         <v>5557800</v>
       </c>
       <c r="S24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2269,13 +2272,13 @@
         <v>35</v>
       </c>
       <c r="F25">
-        <v>0.219918368363561</v>
+        <v>0.009778357774134799</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.52027027027027</v>
+        <v>0.537931034482759</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -2284,22 +2287,22 @@
         <v>0.04</v>
       </c>
       <c r="K25">
+        <v>0.000799671592775</v>
+      </c>
+      <c r="L25">
         <v>0.0001999178981937</v>
       </c>
-      <c r="L25">
-        <v>-0.0003789983829193</v>
-      </c>
       <c r="M25">
-        <v>0.0007787846481876</v>
+        <v>0.0012041208791208</v>
       </c>
       <c r="N25">
-        <v>0.499794745484401</v>
+        <v>1.9991789819376</v>
       </c>
       <c r="O25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q25">
         <v>1803479</v>
@@ -2308,19 +2311,19 @@
         <v>5557800</v>
       </c>
       <c r="S25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2340,37 +2343,37 @@
         <v>35</v>
       </c>
       <c r="F26">
-        <v>0.994189362343704</v>
+        <v>0.994214422369239</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0.864864864864865</v>
+        <v>0.882758620689655</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>482</v>
+        <v>460</v>
       </c>
       <c r="K26">
-        <v>-22.6704685292921</v>
+        <v>-21.0338130411747</v>
       </c>
       <c r="L26">
-        <v>-43.4821428571429</v>
+        <v>-39.3138679576504</v>
       </c>
       <c r="M26">
-        <v>-7.12518407735106</v>
+        <v>-6.29317264855182</v>
       </c>
       <c r="N26">
-        <v>-4.703416707322</v>
+        <v>-4.57256805242929</v>
       </c>
       <c r="O26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q26">
         <v>1803479</v>
@@ -2379,19 +2382,19 @@
         <v>5557800</v>
       </c>
       <c r="S26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2411,13 +2414,13 @@
         <v>37</v>
       </c>
       <c r="F27">
-        <v>0.99590264606426</v>
+        <v>0.997134985628327</v>
       </c>
       <c r="G27">
-        <v>0.5942028985507249</v>
+        <v>0.592592592592593</v>
       </c>
       <c r="H27">
-        <v>0.434782608695652</v>
+        <v>0.42962962962963</v>
       </c>
       <c r="I27">
         <v>5</v>
@@ -2438,10 +2441,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q27">
         <v>1803479</v>
@@ -2450,19 +2453,19 @@
         <v>5557800</v>
       </c>
       <c r="S27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2479,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F28">
-        <v>0.973380748950434</v>
+        <v>0.971461005775232</v>
       </c>
       <c r="G28">
-        <v>0.231884057971014</v>
+        <v>0.248275862068966</v>
       </c>
       <c r="H28">
-        <v>0.22463768115942</v>
+        <v>0.2</v>
       </c>
       <c r="I28">
         <v>2</v>
@@ -2497,22 +2500,22 @@
         <v>0.006</v>
       </c>
       <c r="K28">
-        <v>-0.0002258812615955</v>
+        <v>-0.0001689017431335</v>
       </c>
       <c r="L28">
-        <v>-0.0004807097320738</v>
+        <v>-0.0004122120479543</v>
       </c>
       <c r="M28">
         <v>0</v>
       </c>
       <c r="N28">
-        <v>-3.76468769325912</v>
+        <v>-2.81502905222515</v>
       </c>
       <c r="O28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P28" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Q28">
         <v>1803479</v>
@@ -2521,19 +2524,19 @@
         <v>5557800</v>
       </c>
       <c r="S28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2553,37 +2556,37 @@
         <v>35</v>
       </c>
       <c r="F29">
-        <v>0.681911216537614</v>
+        <v>0.777910533350506</v>
       </c>
       <c r="G29">
-        <v>0.0797101449275362</v>
+        <v>0.0827586206896552</v>
       </c>
       <c r="H29">
-        <v>0.876811594202899</v>
+        <v>0.868965517241379</v>
       </c>
       <c r="I29">
         <v>2</v>
       </c>
       <c r="J29">
-        <v>1.07035</v>
+        <v>0.965</v>
       </c>
       <c r="K29">
-        <v>-0.0031775412087912</v>
+        <v>-0.004969387755102</v>
       </c>
       <c r="L29">
-        <v>-0.0246806593145774</v>
+        <v>-0.0252007791108499</v>
       </c>
       <c r="M29">
-        <v>0.0067608118286148</v>
+        <v>0.0039873218344649</v>
       </c>
       <c r="N29">
-        <v>-0.296869361310899</v>
+        <v>-0.514962461668606</v>
       </c>
       <c r="O29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q29">
         <v>1803479</v>
@@ -2592,19 +2595,19 @@
         <v>5557800</v>
       </c>
       <c r="S29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2624,34 +2627,34 @@
         <v>35</v>
       </c>
       <c r="F30">
-        <v>0.810899425437082</v>
+        <v>0.07764911012508501</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
-        <v>0.65034965034965</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>7.56</v>
+        <v>7.6</v>
       </c>
       <c r="K30">
-        <v>0.0068274201032068</v>
+        <v>-0.0114051522248244</v>
       </c>
       <c r="L30">
-        <v>-0.00505321376781</v>
+        <v>-0.0227293498362688</v>
       </c>
       <c r="M30">
-        <v>0.0202371173208622</v>
+        <v>0.0021617199644179</v>
       </c>
       <c r="N30">
-        <v>0.0903097897249578</v>
+        <v>-0.1500677924319</v>
       </c>
       <c r="O30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P30" t="s">
         <v>50</v>
@@ -2663,16 +2666,16 @@
         <v>5557800</v>
       </c>
       <c r="S30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2689,40 +2692,40 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F31">
-        <v>0.710751993599312</v>
+        <v>0.766642505471178</v>
       </c>
       <c r="G31">
-        <v>0.0202702702702703</v>
+        <v>0.0137931034482759</v>
       </c>
       <c r="H31">
-        <v>0.959459459459459</v>
+        <v>0.9655172413793101</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J31">
-        <v>1.0265</v>
+        <v>1.026</v>
       </c>
       <c r="K31">
-        <v>-0.0021978938730853</v>
+        <v>-0.0043500685348766</v>
       </c>
       <c r="L31">
-        <v>-0.0230789835164835</v>
+        <v>-0.0254257896955766</v>
       </c>
       <c r="M31">
-        <v>0.007080917033798</v>
+        <v>0.0064533703800134</v>
       </c>
       <c r="N31">
-        <v>-0.214115331036078</v>
+        <v>-0.423983287999671</v>
       </c>
       <c r="O31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q31">
         <v>1803479</v>
@@ -2731,19 +2734,19 @@
         <v>5557800</v>
       </c>
       <c r="S31" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2763,37 +2766,37 @@
         <v>35</v>
       </c>
       <c r="F32">
-        <v>0.833308868505074</v>
+        <v>0.956352705054309</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
-        <v>0.864864864864865</v>
+        <v>0.848275862068966</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>1.5825</v>
+        <v>1.555</v>
       </c>
       <c r="K32">
-        <v>-0.009013572799561199</v>
+        <v>-0.015051510989011</v>
       </c>
       <c r="L32">
-        <v>-0.0345875384274324</v>
+        <v>-0.0438387627640996</v>
       </c>
       <c r="M32">
-        <v>0.008389286167194599</v>
+        <v>-0.0004437441377031</v>
       </c>
       <c r="N32">
-        <v>-0.569578060003872</v>
+        <v>-0.967942828875306</v>
       </c>
       <c r="O32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P32" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="Q32">
         <v>1803479</v>
@@ -2802,19 +2805,19 @@
         <v>5557800</v>
       </c>
       <c r="S32" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2828,19 +2831,19 @@
         <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F33">
-        <v>0.672941710680018</v>
+        <v>0.554397015149889</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0.655405405405405</v>
+        <v>0.613793103448276</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -2849,22 +2852,22 @@
         <v>0.068</v>
       </c>
       <c r="K33">
-        <v>-0.0002496582365003</v>
+        <v>0</v>
       </c>
       <c r="L33">
-        <v>-0.001340763551444</v>
+        <v>-0.0012789533823599</v>
       </c>
       <c r="M33">
-        <v>0.0007188832811356</v>
+        <v>0.000940270827994</v>
       </c>
       <c r="N33">
-        <v>-0.367144465441679</v>
+        <v>0</v>
       </c>
       <c r="O33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P33" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="Q33">
         <v>1803479</v>
@@ -2873,19 +2876,19 @@
         <v>5557800</v>
       </c>
       <c r="S33" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2905,37 +2908,37 @@
         <v>35</v>
       </c>
       <c r="F34">
-        <v>0.9972495045840269</v>
+        <v>0.999270444064283</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34">
-        <v>0.885135135135135</v>
+        <v>0.889655172413793</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>2.685</v>
+        <v>2.66</v>
       </c>
       <c r="K34">
-        <v>-0.105786692759296</v>
+        <v>-0.125043322062553</v>
       </c>
       <c r="L34">
-        <v>-0.245839352723737</v>
+        <v>-0.243688313621277</v>
       </c>
       <c r="M34">
-        <v>-0.056244724136708</v>
+        <v>-0.0645261199734275</v>
       </c>
       <c r="N34">
-        <v>-3.9399140692475</v>
+        <v>-4.7008767692689</v>
       </c>
       <c r="O34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q34">
         <v>1803479</v>
@@ -2944,19 +2947,19 @@
         <v>5557800</v>
       </c>
       <c r="S34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
